--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,183 +43,159 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>size</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>little</t>
+    <t>get</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -250,21 +226,18 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
@@ -274,10 +247,13 @@
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
+    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -641,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8913043478260869</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -752,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8309859154929577</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>0.8461538461538461</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8009708737864077</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7954545454545454</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.6415094339622641</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7903225806451613</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C7">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D7">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.578125</v>
+        <v>0.59375</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.463768115942029</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.78125</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.4306808859721083</v>
+        <v>0.4360655737704918</v>
       </c>
       <c r="L9">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M9">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6756756756756757</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.4195402298850575</v>
+        <v>0.4339080459770115</v>
       </c>
       <c r="L10">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M10">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6727272727272727</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.3921161825726141</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="L11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,31 +1154,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12">
+        <v>0.35</v>
+      </c>
+      <c r="L12">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>78</v>
-      </c>
-      <c r="K12">
-        <v>0.3425076452599388</v>
-      </c>
-      <c r="L12">
-        <v>112</v>
-      </c>
-      <c r="M12">
-        <v>112</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,31 +1204,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>110</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5925925925925926</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.3166666666666667</v>
+        <v>0.296969696969697</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,37 +1286,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5740740740740741</v>
+        <v>0.561046511627907</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.3121693121693122</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="L15">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C16">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,31 +1354,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16">
+        <v>0.2056451612903226</v>
+      </c>
+      <c r="L16">
         <v>51</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16">
-        <v>0.2377622377622378</v>
-      </c>
-      <c r="L16">
-        <v>34</v>
-      </c>
       <c r="M16">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>109</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5542168674698795</v>
+        <v>0.5039370078740157</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,31 +1404,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.2096774193548387</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5246376811594203</v>
+        <v>0.4921875</v>
       </c>
       <c r="C18">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,31 +1454,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.1559139784946237</v>
+        <v>0.1493848857644991</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>157</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5039370078740157</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,31 +1504,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.1536435469710272</v>
+        <v>0.09776536312849161</v>
       </c>
       <c r="L19">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>964</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4761904761904762</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,31 +1554,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.09564085881587508</v>
+        <v>0.09582790091264667</v>
       </c>
       <c r="L20">
         <v>147</v>
       </c>
       <c r="M20">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4754098360655737</v>
+        <v>0.3811881188118812</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,31 +1604,31 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>125</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21">
+        <v>0.08579088471849866</v>
+      </c>
+      <c r="L21">
         <v>32</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21">
-        <v>0.0947075208913649</v>
-      </c>
-      <c r="L21">
-        <v>34</v>
-      </c>
       <c r="M21">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4453125</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,31 +1654,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.04832214765100671</v>
+        <v>0.04172274562584118</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N22">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="O22">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1686,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4421052631578947</v>
+        <v>0.345360824742268</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1712,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4312796208530806</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="C24">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1762,13 +1738,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4306930693069307</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="C25">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1780,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1764,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4157303370786517</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1806,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1814,13 +1790,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3675213675213675</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1832,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>74</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1840,13 +1816,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3298969072164948</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1858,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1866,25 +1842,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3163265306122449</v>
+        <v>0.2659732540861813</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>67</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1892,13 +1868,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.315</v>
+        <v>0.2644927536231884</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1910,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>137</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1918,13 +1894,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3132911392405063</v>
+        <v>0.2642857142857143</v>
       </c>
       <c r="C31">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1936,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>217</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1944,13 +1920,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2928571428571429</v>
+        <v>0.2577092511013216</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D32">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1962,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>99</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1970,25 +1946,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2898550724637681</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1996,13 +1972,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2777777777777778</v>
+        <v>0.245</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2014,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2022,25 +1998,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2678571428571428</v>
+        <v>0.2312138728323699</v>
       </c>
       <c r="C35">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="D35">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>492</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2048,25 +2024,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.253968253968254</v>
+        <v>0.2292993630573248</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>235</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2074,25 +2050,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.247787610619469</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="C37">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>340</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2100,13 +2076,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2421875</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2118,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2126,25 +2102,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.239193083573487</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="C39">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>264</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2152,13 +2128,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2198952879581152</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2170,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2178,7 +2154,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2171428571428571</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="C41">
         <v>38</v>
@@ -2196,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2204,25 +2180,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.205607476635514</v>
+        <v>0.1856060606060606</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D42">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2230,25 +2206,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2038216560509554</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>125</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2256,13 +2232,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.203125</v>
+        <v>0.1534246575342466</v>
       </c>
       <c r="C44">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2274,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>153</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2282,25 +2258,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1948051948051948</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>124</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2308,25 +2284,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1912568306010929</v>
+        <v>0.1173553719008264</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>148</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2334,25 +2310,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1906077348066298</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="C47">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>293</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2360,25 +2336,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1862348178137652</v>
+        <v>0.1115107913669065</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>201</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2386,25 +2362,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1804511278195489</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>218</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2412,13 +2388,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1666666666666667</v>
+        <v>0.1011764705882353</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E50">
         <v>0.09</v>
@@ -2430,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>155</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2438,25 +2414,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1657142857142857</v>
+        <v>0.1004672897196262</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>146</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2464,25 +2440,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1492537313432836</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C52">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D52">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E52">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F52">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>513</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2490,25 +2466,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1397849462365591</v>
+        <v>0.08634538152610442</v>
       </c>
       <c r="C53">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E53">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="F53">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>240</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2516,233 +2492,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1396011396011396</v>
+        <v>0.0793854033290653</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D54">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E54">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F54">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.1301587301587302</v>
-      </c>
-      <c r="C55">
-        <v>41</v>
-      </c>
-      <c r="D55">
-        <v>43</v>
-      </c>
-      <c r="E55">
-        <v>0.05</v>
-      </c>
-      <c r="F55">
-        <v>0.95</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.1165919282511211</v>
-      </c>
-      <c r="C56">
-        <v>52</v>
-      </c>
-      <c r="D56">
-        <v>55</v>
-      </c>
-      <c r="E56">
-        <v>0.05</v>
-      </c>
-      <c r="F56">
-        <v>0.95</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.1126760563380282</v>
-      </c>
-      <c r="C57">
-        <v>48</v>
-      </c>
-      <c r="D57">
-        <v>56</v>
-      </c>
-      <c r="E57">
-        <v>0.14</v>
-      </c>
-      <c r="F57">
-        <v>0.86</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.09067688378033206</v>
-      </c>
-      <c r="C58">
-        <v>71</v>
-      </c>
-      <c r="D58">
-        <v>82</v>
-      </c>
-      <c r="E58">
-        <v>0.13</v>
-      </c>
-      <c r="F58">
-        <v>0.87</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.08490566037735849</v>
-      </c>
-      <c r="C59">
-        <v>36</v>
-      </c>
-      <c r="D59">
-        <v>41</v>
-      </c>
-      <c r="E59">
-        <v>0.12</v>
-      </c>
-      <c r="F59">
-        <v>0.88</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.08461538461538462</v>
-      </c>
-      <c r="C60">
-        <v>55</v>
-      </c>
-      <c r="D60">
-        <v>60</v>
-      </c>
-      <c r="E60">
-        <v>0.08</v>
-      </c>
-      <c r="F60">
-        <v>0.92</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.06986027944111776</v>
-      </c>
-      <c r="C61">
-        <v>35</v>
-      </c>
-      <c r="D61">
-        <v>38</v>
-      </c>
-      <c r="E61">
-        <v>0.08</v>
-      </c>
-      <c r="F61">
-        <v>0.92</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.06864988558352403</v>
-      </c>
-      <c r="C62">
-        <v>30</v>
-      </c>
-      <c r="D62">
-        <v>40</v>
-      </c>
-      <c r="E62">
-        <v>0.25</v>
-      </c>
-      <c r="F62">
-        <v>0.75</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>407</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
